--- a/portal-web/test/com/liferay/portalweb/dependencies/Document_1.xlsx
+++ b/portal-web/test/com/liferay/portalweb/dependencies/Document_1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="141"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -27,9 +27,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,7 +61,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,92 +350,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -443,72 +360,63 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -516,17 +424,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -534,16 +436,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>